--- a/Final Project/code/Package/example.xlsx
+++ b/Final Project/code/Package/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\資料庫系統\NTU_DBMS\Final Project\code\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\資料庫系統\NTU_DBMS\Final Project\code\Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63291466-DD26-4706-AD02-5228D21CC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E9411-04DF-465A-980C-5F61A33DFD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wine-test" sheetId="3" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,19 +428,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-53.712164720512931</v>
+        <v>-123.74983884959501</v>
       </c>
       <c r="C2">
-        <v>-9.8848960449529173</v>
+        <v>-12.976144765412268</v>
       </c>
       <c r="D2">
-        <v>-4.1079568120442866</v>
+        <v>-9.2728461600278134E-3</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>276.4804232630284</v>
+        <v>-38.186187133493149</v>
       </c>
       <c r="C3">
-        <v>-5.4223229233453987</v>
+        <v>18.701517097647404</v>
       </c>
       <c r="D3">
-        <v>5.2147522062798517</v>
+        <v>-1.3867672388076686</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>411.44848606921613</v>
+        <v>-93.469030328672616</v>
       </c>
       <c r="C4">
-        <v>-6.2546573613725247</v>
+        <v>2.3821548469195468</v>
       </c>
       <c r="D4">
-        <v>-2.7596051577697107</v>
+        <v>2.8081140977362873</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>271.42155101606545</v>
+        <v>706.62549295714518</v>
       </c>
       <c r="C5">
-        <v>-8.1338930172481057</v>
+        <v>0.42635940230863401</v>
       </c>
       <c r="D5">
-        <v>2.3202968600246519</v>
+        <v>-1.9052413440852078</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -508,19 +508,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-418.36948082716509</v>
+        <v>411.44848606921613</v>
       </c>
       <c r="C6">
-        <v>11.216073895075723</v>
+        <v>-6.2546573613725247</v>
       </c>
       <c r="D6">
-        <v>1.9070935841177625</v>
+        <v>-2.7596051577697107</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,19 +528,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-253.65266767698796</v>
+        <v>271.43479649611305</v>
       </c>
       <c r="C7">
-        <v>-8.1857327506741768</v>
+        <v>-7.0382487737745079</v>
       </c>
       <c r="D7">
-        <v>8.1026974587707574</v>
+        <v>0.28717853823951511</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,19 +548,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>521.78601817563083</v>
+        <v>-183.48234813873583</v>
       </c>
       <c r="C8">
-        <v>11.728748585684579</v>
+        <v>4.5016825515443646</v>
       </c>
       <c r="D8">
-        <v>-0.86249376140279999</v>
+        <v>-5.0248959303574505</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,19 +568,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-353.67243856704715</v>
+        <v>-53.712164720512931</v>
       </c>
       <c r="C9">
-        <v>-6.918376506796565</v>
+        <v>-9.8848960449529173</v>
       </c>
       <c r="D9">
-        <v>0.45406749627266241</v>
+        <v>-4.1079568120442866</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,19 +588,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-93.469030328672616</v>
+        <v>-173.38604748155444</v>
       </c>
       <c r="C10">
-        <v>2.3821548469195468</v>
+        <v>9.143989277661257</v>
       </c>
       <c r="D10">
-        <v>2.8081140977362873</v>
+        <v>-2.5661416216718749</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,19 +608,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>291.94604920195513</v>
+        <v>-213.53051082256263</v>
       </c>
       <c r="C11">
-        <v>21.518955319832379</v>
+        <v>2.0272968813250967</v>
       </c>
       <c r="D11">
-        <v>2.724249571984124</v>
+        <v>-5.0837756202265352</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -628,19 +628,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>271.43479649611305</v>
+        <v>-353.67243856704715</v>
       </c>
       <c r="C12">
-        <v>-7.0382487737745079</v>
+        <v>-6.918376506796565</v>
       </c>
       <c r="D12">
-        <v>0.28717853823951511</v>
+        <v>0.45406749627266241</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,19 +648,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-78.599548513977012</v>
+        <v>-95.521222797906589</v>
       </c>
       <c r="C13">
-        <v>-4.7260565835068187</v>
+        <v>-0.47012403304983519</v>
       </c>
       <c r="D13">
-        <v>-1.1562104704535103</v>
+        <v>0.52552034316065721</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,19 +668,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>676.6151307360883</v>
+        <v>-143.09356497880515</v>
       </c>
       <c r="C14">
-        <v>-0.13842956017230185</v>
+        <v>24.320911686480972</v>
       </c>
       <c r="D14">
-        <v>-0.15032677718887397</v>
+        <v>2.3968044241121405</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,19 +688,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-193.69150257285162</v>
+        <v>-23.322477525633296</v>
       </c>
       <c r="C15">
-        <v>-8.61134387336792</v>
+        <v>10.211075875789476</v>
       </c>
       <c r="D15">
-        <v>-1.9580911776730916</v>
+        <v>2.2407324784038654</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-183.48234813873583</v>
+        <v>-243.40193401045465</v>
       </c>
       <c r="C17">
-        <v>4.5016825515443646</v>
+        <v>8.247081082721845</v>
       </c>
       <c r="D17">
-        <v>-5.0248959303574505</v>
+        <v>-0.85866255543196601</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -748,19 +748,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-213.53051082256263</v>
+        <v>-418.36948082716509</v>
       </c>
       <c r="C18">
-        <v>2.0272968813250967</v>
+        <v>11.216073895075723</v>
       </c>
       <c r="D18">
-        <v>-5.0837756202265352</v>
+        <v>1.9070935841177625</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,19 +788,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-143.09356497880515</v>
+        <v>291.94604920195513</v>
       </c>
       <c r="C20">
-        <v>24.320911686480972</v>
+        <v>21.518955319832379</v>
       </c>
       <c r="D20">
-        <v>2.3968044241121405</v>
+        <v>2.724249571984124</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,19 +808,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-173.38604748155444</v>
+        <v>271.42155101606545</v>
       </c>
       <c r="C21">
-        <v>9.143989277661257</v>
+        <v>-8.1338930172481057</v>
       </c>
       <c r="D21">
-        <v>-2.5661416216718749</v>
+        <v>2.3202968600246519</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -828,19 +828,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-143.5862435706926</v>
+        <v>676.6151307360883</v>
       </c>
       <c r="C22">
-        <v>-3.6083405556931516</v>
+        <v>-0.13842956017230185</v>
       </c>
       <c r="D22">
-        <v>0.72056135120303277</v>
+        <v>-0.15032677718887397</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>516.35752440232955</v>
+        <v>-78.599548513977012</v>
       </c>
       <c r="C23">
-        <v>-13.334256227124005</v>
+        <v>-4.7260565835068187</v>
       </c>
       <c r="D23">
-        <v>0.30324840881565407</v>
+        <v>-1.1562104704535103</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -868,19 +868,19 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>-258.56426291174176</v>
+        <v>516.35752440232955</v>
       </c>
       <c r="C24">
-        <v>0.91112341972080924</v>
+        <v>-13.334256227124005</v>
       </c>
       <c r="D24">
-        <v>-6.6634189783736755</v>
+        <v>0.30324840881565407</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,16 +888,16 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>-243.40193401045465</v>
+        <v>-253.65266767698796</v>
       </c>
       <c r="C25">
-        <v>8.247081082721845</v>
+        <v>-8.1857327506741768</v>
       </c>
       <c r="D25">
-        <v>-0.85866255543196601</v>
+        <v>8.1026974587707574</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -908,19 +908,19 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>-95.521222797906589</v>
+        <v>521.78601817563083</v>
       </c>
       <c r="C26">
-        <v>-0.47012403304983519</v>
+        <v>11.728748585684579</v>
       </c>
       <c r="D26">
-        <v>0.52552034316065721</v>
+        <v>-0.86249376140279999</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,19 +928,19 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>706.62549295714518</v>
+        <v>-323.44365319259413</v>
       </c>
       <c r="C27">
-        <v>0.42635940230863401</v>
+        <v>5.3859499961835287</v>
       </c>
       <c r="D27">
-        <v>-1.9052413440852078</v>
+        <v>2.7427218632618171</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,16 +948,16 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>-323.44365319259413</v>
+        <v>-258.56426291174176</v>
       </c>
       <c r="C28">
-        <v>5.3859499961835287</v>
+        <v>0.91112341972080924</v>
       </c>
       <c r="D28">
-        <v>2.7427218632618171</v>
+        <v>-6.6634189783736755</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -968,19 +968,19 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>-123.74983884959501</v>
+        <v>276.4804232630284</v>
       </c>
       <c r="C29">
-        <v>-12.976144765412268</v>
+        <v>-5.4223229233453987</v>
       </c>
       <c r="D29">
-        <v>-9.2728461600278134E-3</v>
+        <v>5.2147522062798517</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -988,16 +988,16 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>-38.186187133493149</v>
+        <v>-143.5862435706926</v>
       </c>
       <c r="C30">
-        <v>18.701517097647404</v>
+        <v>-3.6083405556931516</v>
       </c>
       <c r="D30">
-        <v>-1.3867672388076686</v>
+        <v>0.72056135120303277</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1008,16 +1008,16 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>-23.322477525633296</v>
+        <v>-193.69150257285162</v>
       </c>
       <c r="C31">
-        <v>10.211075875789476</v>
+        <v>-8.61134387336792</v>
       </c>
       <c r="D31">
-        <v>2.2407324784038654</v>
+        <v>-1.9580911776730916</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>3</v>

--- a/Final Project/code/Package/example.xlsx
+++ b/Final Project/code/Package/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\資料庫系統\NTU_DBMS\Final Project\code\Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU BEBI\111-2 Course\資料庫系統\NTU_DBMS\Final Project\code\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E9411-04DF-465A-980C-5F61A33DFD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63291466-DD26-4706-AD02-5228D21CC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wine-test" sheetId="3" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,19 +428,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-123.74983884959501</v>
+        <v>-53.712164720512931</v>
       </c>
       <c r="C2">
-        <v>-12.976144765412268</v>
+        <v>-9.8848960449529173</v>
       </c>
       <c r="D2">
-        <v>-9.2728461600278134E-3</v>
+        <v>-4.1079568120442866</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-38.186187133493149</v>
+        <v>276.4804232630284</v>
       </c>
       <c r="C3">
-        <v>18.701517097647404</v>
+        <v>-5.4223229233453987</v>
       </c>
       <c r="D3">
-        <v>-1.3867672388076686</v>
+        <v>5.2147522062798517</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -468,19 +468,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-93.469030328672616</v>
+        <v>411.44848606921613</v>
       </c>
       <c r="C4">
-        <v>2.3821548469195468</v>
+        <v>-6.2546573613725247</v>
       </c>
       <c r="D4">
-        <v>2.8081140977362873</v>
+        <v>-2.7596051577697107</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>706.62549295714518</v>
+        <v>271.42155101606545</v>
       </c>
       <c r="C5">
-        <v>0.42635940230863401</v>
+        <v>-8.1338930172481057</v>
       </c>
       <c r="D5">
-        <v>-1.9052413440852078</v>
+        <v>2.3202968600246519</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -508,19 +508,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>411.44848606921613</v>
+        <v>-418.36948082716509</v>
       </c>
       <c r="C6">
-        <v>-6.2546573613725247</v>
+        <v>11.216073895075723</v>
       </c>
       <c r="D6">
-        <v>-2.7596051577697107</v>
+        <v>1.9070935841177625</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -528,19 +528,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>271.43479649611305</v>
+        <v>-253.65266767698796</v>
       </c>
       <c r="C7">
-        <v>-7.0382487737745079</v>
+        <v>-8.1857327506741768</v>
       </c>
       <c r="D7">
-        <v>0.28717853823951511</v>
+        <v>8.1026974587707574</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,19 +548,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-183.48234813873583</v>
+        <v>521.78601817563083</v>
       </c>
       <c r="C8">
-        <v>4.5016825515443646</v>
+        <v>11.728748585684579</v>
       </c>
       <c r="D8">
-        <v>-5.0248959303574505</v>
+        <v>-0.86249376140279999</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,19 +568,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-53.712164720512931</v>
+        <v>-353.67243856704715</v>
       </c>
       <c r="C9">
-        <v>-9.8848960449529173</v>
+        <v>-6.918376506796565</v>
       </c>
       <c r="D9">
-        <v>-4.1079568120442866</v>
+        <v>0.45406749627266241</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,19 +588,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-173.38604748155444</v>
+        <v>-93.469030328672616</v>
       </c>
       <c r="C10">
-        <v>9.143989277661257</v>
+        <v>2.3821548469195468</v>
       </c>
       <c r="D10">
-        <v>-2.5661416216718749</v>
+        <v>2.8081140977362873</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,19 +608,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-213.53051082256263</v>
+        <v>291.94604920195513</v>
       </c>
       <c r="C11">
-        <v>2.0272968813250967</v>
+        <v>21.518955319832379</v>
       </c>
       <c r="D11">
-        <v>-5.0837756202265352</v>
+        <v>2.724249571984124</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -628,19 +628,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-353.67243856704715</v>
+        <v>271.43479649611305</v>
       </c>
       <c r="C12">
-        <v>-6.918376506796565</v>
+        <v>-7.0382487737745079</v>
       </c>
       <c r="D12">
-        <v>0.45406749627266241</v>
+        <v>0.28717853823951511</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,19 +648,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-95.521222797906589</v>
+        <v>-78.599548513977012</v>
       </c>
       <c r="C13">
-        <v>-0.47012403304983519</v>
+        <v>-4.7260565835068187</v>
       </c>
       <c r="D13">
-        <v>0.52552034316065721</v>
+        <v>-1.1562104704535103</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,19 +668,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-143.09356497880515</v>
+        <v>676.6151307360883</v>
       </c>
       <c r="C14">
-        <v>24.320911686480972</v>
+        <v>-0.13842956017230185</v>
       </c>
       <c r="D14">
-        <v>2.3968044241121405</v>
+        <v>-0.15032677718887397</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,19 +688,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-23.322477525633296</v>
+        <v>-193.69150257285162</v>
       </c>
       <c r="C15">
-        <v>10.211075875789476</v>
+        <v>-8.61134387336792</v>
       </c>
       <c r="D15">
-        <v>2.2407324784038654</v>
+        <v>-1.9580911776730916</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-243.40193401045465</v>
+        <v>-183.48234813873583</v>
       </c>
       <c r="C17">
-        <v>8.247081082721845</v>
+        <v>4.5016825515443646</v>
       </c>
       <c r="D17">
-        <v>-0.85866255543196601</v>
+        <v>-5.0248959303574505</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -748,19 +748,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-418.36948082716509</v>
+        <v>-213.53051082256263</v>
       </c>
       <c r="C18">
-        <v>11.216073895075723</v>
+        <v>2.0272968813250967</v>
       </c>
       <c r="D18">
-        <v>1.9070935841177625</v>
+        <v>-5.0837756202265352</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,19 +788,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>291.94604920195513</v>
+        <v>-143.09356497880515</v>
       </c>
       <c r="C20">
-        <v>21.518955319832379</v>
+        <v>24.320911686480972</v>
       </c>
       <c r="D20">
-        <v>2.724249571984124</v>
+        <v>2.3968044241121405</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,19 +808,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>271.42155101606545</v>
+        <v>-173.38604748155444</v>
       </c>
       <c r="C21">
-        <v>-8.1338930172481057</v>
+        <v>9.143989277661257</v>
       </c>
       <c r="D21">
-        <v>2.3202968600246519</v>
+        <v>-2.5661416216718749</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -828,19 +828,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>676.6151307360883</v>
+        <v>-143.5862435706926</v>
       </c>
       <c r="C22">
-        <v>-0.13842956017230185</v>
+        <v>-3.6083405556931516</v>
       </c>
       <c r="D22">
-        <v>-0.15032677718887397</v>
+        <v>0.72056135120303277</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>-78.599548513977012</v>
+        <v>516.35752440232955</v>
       </c>
       <c r="C23">
-        <v>-4.7260565835068187</v>
+        <v>-13.334256227124005</v>
       </c>
       <c r="D23">
-        <v>-1.1562104704535103</v>
+        <v>0.30324840881565407</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -868,19 +868,19 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>516.35752440232955</v>
+        <v>-258.56426291174176</v>
       </c>
       <c r="C24">
-        <v>-13.334256227124005</v>
+        <v>0.91112341972080924</v>
       </c>
       <c r="D24">
-        <v>0.30324840881565407</v>
+        <v>-6.6634189783736755</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,16 +888,16 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>-253.65266767698796</v>
+        <v>-243.40193401045465</v>
       </c>
       <c r="C25">
-        <v>-8.1857327506741768</v>
+        <v>8.247081082721845</v>
       </c>
       <c r="D25">
-        <v>8.1026974587707574</v>
+        <v>-0.85866255543196601</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -908,19 +908,19 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>521.78601817563083</v>
+        <v>-95.521222797906589</v>
       </c>
       <c r="C26">
-        <v>11.728748585684579</v>
+        <v>-0.47012403304983519</v>
       </c>
       <c r="D26">
-        <v>-0.86249376140279999</v>
+        <v>0.52552034316065721</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,19 +928,19 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>-323.44365319259413</v>
+        <v>706.62549295714518</v>
       </c>
       <c r="C27">
-        <v>5.3859499961835287</v>
+        <v>0.42635940230863401</v>
       </c>
       <c r="D27">
-        <v>2.7427218632618171</v>
+        <v>-1.9052413440852078</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,16 +948,16 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>-258.56426291174176</v>
+        <v>-323.44365319259413</v>
       </c>
       <c r="C28">
-        <v>0.91112341972080924</v>
+        <v>5.3859499961835287</v>
       </c>
       <c r="D28">
-        <v>-6.6634189783736755</v>
+        <v>2.7427218632618171</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -968,19 +968,19 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>276.4804232630284</v>
+        <v>-123.74983884959501</v>
       </c>
       <c r="C29">
-        <v>-5.4223229233453987</v>
+        <v>-12.976144765412268</v>
       </c>
       <c r="D29">
-        <v>5.2147522062798517</v>
+        <v>-9.2728461600278134E-3</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -988,16 +988,16 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>-143.5862435706926</v>
+        <v>-38.186187133493149</v>
       </c>
       <c r="C30">
-        <v>-3.6083405556931516</v>
+        <v>18.701517097647404</v>
       </c>
       <c r="D30">
-        <v>0.72056135120303277</v>
+        <v>-1.3867672388076686</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1008,16 +1008,16 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>-193.69150257285162</v>
+        <v>-23.322477525633296</v>
       </c>
       <c r="C31">
-        <v>-8.61134387336792</v>
+        <v>10.211075875789476</v>
       </c>
       <c r="D31">
-        <v>-1.9580911776730916</v>
+        <v>2.2407324784038654</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>3</v>
